--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H2">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I2">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J2">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N2">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O2">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P2">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q2">
-        <v>225.3062467351609</v>
+        <v>231.7172631870633</v>
       </c>
       <c r="R2">
-        <v>2027.756220616448</v>
+        <v>2085.45536868357</v>
       </c>
       <c r="S2">
-        <v>0.07275755999167759</v>
+        <v>0.09433671217556916</v>
       </c>
       <c r="T2">
-        <v>0.07992228503117076</v>
+        <v>0.101385157104633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H3">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I3">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J3">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P3">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q3">
-        <v>0.5650373931624445</v>
+        <v>0.9929296077595555</v>
       </c>
       <c r="R3">
-        <v>5.085336538462</v>
+        <v>8.936366469836001</v>
       </c>
       <c r="S3">
-        <v>0.0001824660550973618</v>
+        <v>0.0004042414161529054</v>
       </c>
       <c r="T3">
-        <v>0.0002004342100762142</v>
+        <v>0.0004344446455647781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H4">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I4">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J4">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N4">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O4">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P4">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q4">
-        <v>7.604588532635667</v>
+        <v>20.64951824678022</v>
       </c>
       <c r="R4">
-        <v>68.44129679372099</v>
+        <v>185.845664221022</v>
       </c>
       <c r="S4">
-        <v>0.00245572998704131</v>
+        <v>0.008406830085154507</v>
       </c>
       <c r="T4">
-        <v>0.002697555443123149</v>
+        <v>0.009034953299507468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H5">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I5">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J5">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N5">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O5">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P5">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q5">
-        <v>11.54917451224517</v>
+        <v>3.346483127546</v>
       </c>
       <c r="R5">
-        <v>69.295047073471</v>
+        <v>20.078898765276</v>
       </c>
       <c r="S5">
-        <v>0.003729544873279794</v>
+        <v>0.001362419921854707</v>
       </c>
       <c r="T5">
-        <v>0.002731205283527967</v>
+        <v>0.0009761428301822407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H6">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I6">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J6">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N6">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O6">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P6">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q6">
-        <v>1.75355481416</v>
+        <v>3.162173350018222</v>
       </c>
       <c r="R6">
-        <v>15.78199332744</v>
+        <v>28.459560150164</v>
       </c>
       <c r="S6">
-        <v>0.0005662708932340963</v>
+        <v>0.001287383741146218</v>
       </c>
       <c r="T6">
-        <v>0.0006220338304237791</v>
+        <v>0.001383571674695923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.574404</v>
       </c>
       <c r="I7">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J7">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N7">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O7">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P7">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q7">
-        <v>665.4140503553139</v>
+        <v>389.4357822439134</v>
       </c>
       <c r="R7">
-        <v>5988.726453197824</v>
+        <v>3504.92204019522</v>
       </c>
       <c r="S7">
-        <v>0.214880427815837</v>
+        <v>0.1585470620320305</v>
       </c>
       <c r="T7">
-        <v>0.23604055443148</v>
+        <v>0.170393035986665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.574404</v>
       </c>
       <c r="I8">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J8">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P8">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q8">
         <v>1.668767847472889</v>
@@ -948,10 +948,10 @@
         <v>15.018910627256</v>
       </c>
       <c r="S8">
-        <v>0.0005388908587049109</v>
+        <v>0.000679388621933642</v>
       </c>
       <c r="T8">
-        <v>0.0005919575754743944</v>
+        <v>0.0007301497008041858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.574404</v>
       </c>
       <c r="I9">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J9">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N9">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O9">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P9">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q9">
-        <v>22.45920887730534</v>
+        <v>34.70462744462355</v>
       </c>
       <c r="R9">
-        <v>202.132879895748</v>
+        <v>312.341647001612</v>
       </c>
       <c r="S9">
-        <v>0.00725269388192755</v>
+        <v>0.0141289449278572</v>
       </c>
       <c r="T9">
-        <v>0.007966895367870307</v>
+        <v>0.01518460065226316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.574404</v>
       </c>
       <c r="I10">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J10">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N10">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O10">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P10">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q10">
-        <v>34.10905423979133</v>
+        <v>5.624269234916</v>
       </c>
       <c r="R10">
-        <v>204.654325438748</v>
+        <v>33.745615409496</v>
       </c>
       <c r="S10">
-        <v>0.01101474813092128</v>
+        <v>0.002289752005157469</v>
       </c>
       <c r="T10">
-        <v>0.008066275997222764</v>
+        <v>0.001640555137866101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.574404</v>
       </c>
       <c r="I11">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J11">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N11">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O11">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P11">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q11">
-        <v>5.178906614080001</v>
+        <v>5.314508876971555</v>
       </c>
       <c r="R11">
-        <v>46.61015952672001</v>
+        <v>47.83057989274401</v>
       </c>
       <c r="S11">
-        <v>0.001672410836918078</v>
+        <v>0.002163642394984765</v>
       </c>
       <c r="T11">
-        <v>0.001837099754481522</v>
+        <v>0.002325300713528406</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H12">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I12">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J12">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N12">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O12">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P12">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q12">
-        <v>615.2656085626027</v>
+        <v>391.1234687723284</v>
       </c>
       <c r="R12">
-        <v>5537.390477063424</v>
+        <v>3520.111218950955</v>
       </c>
       <c r="S12">
-        <v>0.1986861219983369</v>
+        <v>0.1592341528257154</v>
       </c>
       <c r="T12">
-        <v>0.2182515311935341</v>
+        <v>0.1711314633333085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H13">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I13">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J13">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P13">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q13">
-        <v>1.543002382767333</v>
+        <v>1.675999738181556</v>
       </c>
       <c r="R13">
-        <v>13.887021444906</v>
+        <v>15.083997643634</v>
       </c>
       <c r="S13">
-        <v>0.0004982777444402557</v>
+        <v>0.0006823328686543446</v>
       </c>
       <c r="T13">
-        <v>0.0005473451270273249</v>
+        <v>0.0007333139293367392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H14">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I14">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J14">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N14">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O14">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P14">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q14">
-        <v>20.766587075147</v>
+        <v>34.85502587969922</v>
       </c>
       <c r="R14">
-        <v>186.899283676323</v>
+        <v>313.695232917293</v>
       </c>
       <c r="S14">
-        <v>0.006706099927706139</v>
+        <v>0.01419017512575547</v>
       </c>
       <c r="T14">
-        <v>0.007366476142561001</v>
+        <v>0.01525040571468584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H15">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I15">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J15">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N15">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O15">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P15">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q15">
-        <v>31.5384503875955</v>
+        <v>5.648642966999</v>
       </c>
       <c r="R15">
-        <v>189.230702325573</v>
+        <v>33.891857801994</v>
       </c>
       <c r="S15">
-        <v>0.01018462971786714</v>
+        <v>0.002299675036857969</v>
       </c>
       <c r="T15">
-        <v>0.007458367023682648</v>
+        <v>0.001647664763975303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H16">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I16">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J16">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N16">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O16">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P16">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q16">
-        <v>4.78860211608</v>
+        <v>5.337540209596222</v>
       </c>
       <c r="R16">
-        <v>43.09741904472</v>
+        <v>48.037861886366</v>
       </c>
       <c r="S16">
-        <v>0.001546370820985289</v>
+        <v>0.002173018909133731</v>
       </c>
       <c r="T16">
-        <v>0.001698648079083585</v>
+        <v>0.002335377801632954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H17">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I17">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J17">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N17">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O17">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P17">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q17">
-        <v>637.9893563915947</v>
+        <v>430.439762727635</v>
       </c>
       <c r="R17">
-        <v>3827.936138349568</v>
+        <v>2582.63857636581</v>
       </c>
       <c r="S17">
-        <v>0.2060242427555792</v>
+        <v>0.1752405990250976</v>
       </c>
       <c r="T17">
-        <v>0.1508748438396045</v>
+        <v>0.1255558962043953</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H18">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I18">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J18">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.106414</v>
       </c>
       <c r="O18">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P18">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q18">
-        <v>1.599990448665333</v>
+        <v>1.844473643831333</v>
       </c>
       <c r="R18">
-        <v>9.599942691991998</v>
+        <v>11.066841862988</v>
       </c>
       <c r="S18">
-        <v>0.0005166807522727782</v>
+        <v>0.0007509219505715884</v>
       </c>
       <c r="T18">
-        <v>0.0003783735679425221</v>
+        <v>0.0005380184672278222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H19">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I19">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J19">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N19">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O19">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P19">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q19">
-        <v>21.533564265806</v>
+        <v>38.35870324175433</v>
       </c>
       <c r="R19">
-        <v>129.201385594836</v>
+        <v>230.152219450526</v>
       </c>
       <c r="S19">
-        <v>0.006953777876144095</v>
+        <v>0.01561659195078684</v>
       </c>
       <c r="T19">
-        <v>0.005092362612895108</v>
+        <v>0.01118893229621164</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H20">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I20">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J20">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N20">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O20">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P20">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q20">
-        <v>32.70326731145899</v>
+        <v>6.216452687126998</v>
       </c>
       <c r="R20">
-        <v>130.813069245836</v>
+        <v>24.86581074850799</v>
       </c>
       <c r="S20">
-        <v>0.01056078101613514</v>
+        <v>0.002530841681075421</v>
       </c>
       <c r="T20">
-        <v>0.005155885751833447</v>
+        <v>0.001208860264826926</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H21">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I21">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J21">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N21">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O21">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P21">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q21">
-        <v>4.96546067184</v>
+        <v>5.874077432835332</v>
       </c>
       <c r="R21">
-        <v>29.79276403104</v>
+        <v>35.24446459701199</v>
       </c>
       <c r="S21">
-        <v>0.001603483294195476</v>
+        <v>0.002391453897118746</v>
       </c>
       <c r="T21">
-        <v>0.001174256429124071</v>
+        <v>0.001713422226097476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H22">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I22">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J22">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>147.0592853333333</v>
+        <v>86.066935</v>
       </c>
       <c r="N22">
-        <v>441.177856</v>
+        <v>258.200805</v>
       </c>
       <c r="O22">
-        <v>0.9129893958419346</v>
+        <v>0.8916716774694496</v>
       </c>
       <c r="P22">
-        <v>0.9274576550077637</v>
+        <v>0.8955157110805073</v>
       </c>
       <c r="Q22">
-        <v>683.2527828441032</v>
+        <v>747.4779327221182</v>
       </c>
       <c r="R22">
-        <v>6149.275045596929</v>
+        <v>6727.301394499065</v>
       </c>
       <c r="S22">
-        <v>0.2206410432805038</v>
+        <v>0.304313151411037</v>
       </c>
       <c r="T22">
-        <v>0.2423684405119743</v>
+        <v>0.3270501584515055</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H23">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I23">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J23">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.106414</v>
       </c>
       <c r="O23">
-        <v>0.00228965310854373</v>
+        <v>0.003820894467605101</v>
       </c>
       <c r="P23">
-        <v>0.002325937532793486</v>
+        <v>0.003837366502243974</v>
       </c>
       <c r="Q23">
-        <v>1.713504959953556</v>
+        <v>3.203011119406888</v>
       </c>
       <c r="R23">
-        <v>15.421544639582</v>
+        <v>28.827100074662</v>
       </c>
       <c r="S23">
-        <v>0.0005533376980284234</v>
+        <v>0.001304009610292621</v>
       </c>
       <c r="T23">
-        <v>0.0006078270522730305</v>
+        <v>0.001401439759310448</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H24">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I24">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J24">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.963579</v>
+        <v>7.669867666666666</v>
       </c>
       <c r="N24">
-        <v>14.890737</v>
+        <v>23.009603</v>
       </c>
       <c r="O24">
-        <v>0.03081542917981618</v>
+        <v>0.07946145367329926</v>
       </c>
       <c r="P24">
-        <v>0.03130376520837289</v>
+        <v>0.07980401529819077</v>
       </c>
       <c r="Q24">
-        <v>23.06130590074234</v>
+        <v>66.61160674226655</v>
       </c>
       <c r="R24">
-        <v>207.551753106681</v>
+        <v>599.5044606803989</v>
       </c>
       <c r="S24">
-        <v>0.007447127506997085</v>
+        <v>0.02711891158374526</v>
       </c>
       <c r="T24">
-        <v>0.008180475641923321</v>
+        <v>0.02914512333552265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H25">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I25">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J25">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.5382435</v>
+        <v>1.242987</v>
       </c>
       <c r="N25">
-        <v>15.076487</v>
+        <v>2.485974</v>
       </c>
       <c r="O25">
-        <v>0.04679974041200103</v>
+        <v>0.01287760861197995</v>
       </c>
       <c r="P25">
-        <v>0.0316942545701456</v>
+        <v>0.008622083011467191</v>
       </c>
       <c r="Q25">
-        <v>35.02346579107184</v>
+        <v>10.795148603357</v>
       </c>
       <c r="R25">
-        <v>210.140794746431</v>
+        <v>64.770891620142</v>
       </c>
       <c r="S25">
-        <v>0.01131003667379767</v>
+        <v>0.004394919967034385</v>
       </c>
       <c r="T25">
-        <v>0.008282520513878769</v>
+        <v>0.003148860014616619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H26">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I26">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J26">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.14456</v>
+        <v>1.174528666666667</v>
       </c>
       <c r="N26">
-        <v>3.43368</v>
+        <v>3.523586</v>
       </c>
       <c r="O26">
-        <v>0.007105781457704291</v>
+        <v>0.01216836577766621</v>
       </c>
       <c r="P26">
-        <v>0.007218387680924444</v>
+        <v>0.01222082410759068</v>
       </c>
       <c r="Q26">
-        <v>5.317745175760001</v>
+        <v>10.20059863503755</v>
       </c>
       <c r="R26">
-        <v>47.85970658184001</v>
+        <v>91.805387715338</v>
       </c>
       <c r="S26">
-        <v>0.001717245612371352</v>
+        <v>0.004152866835282756</v>
       </c>
       <c r="T26">
-        <v>0.001886349587811488</v>
+        <v>0.00446315169163592</v>
       </c>
     </row>
   </sheetData>
